--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1239">
   <si>
     <t>zh_CN</t>
   </si>
@@ -3868,7 +3868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="부패한 기사"]  크어어……. 적은 어디 있지? 빛이 너무 밝아서 잘 안 보여……!
+    <t xml:space="preserve">[name="부패한 기사"]  크어어…… 적은 어디 있지? 빛이 너무 밝아서 잘 안 보여……!
 </t>
   </si>
   <si>
@@ -3880,7 +3880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="부패한 기사"]  감히…... 주먹만으로 내 두 발을 움직이게 만들어? 누구냐?
+    <t xml:space="preserve">[name="부패한 기사"]  감히…… 주먹만으로 내 두 발을 움직이게 만들어? 누구냐?
 </t>
   </si>
   <si>
@@ -3888,7 +3888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="부패한 기사"]  크어어…….
+    <t xml:space="preserve">[name="부패한 기사"]  크어어……
 </t>
   </si>
   <si>
@@ -3916,11 +3916,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  흐흑…… 왜.….. 이제야 온 거야……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="부패한 기사"]  …...거슬리는군! 둘 다 죽여버려!
+    <t xml:space="preserve">[name="마리아"]  흐흑…… 왜…… 이제야 온 거야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="부패한 기사"]  ……거슬리는군! 둘 다 죽여버려!
 </t>
   </si>
   <si>
@@ -4028,7 +4028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="플래티넘"]  (이 강도, 전에 마리아가 보여줬던 아츠 같진 않은데, 설마…..)
+    <t xml:space="preserve">[name="플래티넘"]  (이 강도, 전에 마리아가 보여줬던 아츠 같진 않은데, 설마……)
 </t>
   </si>
   <si>
@@ -4272,7 +4272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="기업 직원"]  차르니 선생님…..?
+    <t xml:space="preserve">[name="기업 직원"]  차르니 선생님……?
 </t>
   </si>
   <si>
@@ -4300,10 +4300,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="부패한 기사"]  크어어……
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="쇠퇴한 기사"]  내가 제압할게! 목표를 처리해!
 </t>
   </si>
@@ -4808,7 +4804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="부패한 기사"]  자…… 잠깐, 너……. 넌……
+    <t xml:space="preserve">[name="부패한 기사"]  자…… 잠깐, 너…… 넌……
 </t>
   </si>
   <si>
@@ -7444,7 +7440,7 @@
         <v>762</v>
       </c>
       <c r="D151" t="s">
-        <v>1072</v>
+        <v>969</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -7458,7 +7454,7 @@
         <v>763</v>
       </c>
       <c r="D152" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -7472,7 +7468,7 @@
         <v>764</v>
       </c>
       <c r="D153" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7486,7 +7482,7 @@
         <v>765</v>
       </c>
       <c r="D154" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -7500,7 +7496,7 @@
         <v>766</v>
       </c>
       <c r="D155" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7514,7 +7510,7 @@
         <v>767</v>
       </c>
       <c r="D156" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7528,7 +7524,7 @@
         <v>768</v>
       </c>
       <c r="D157" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7556,7 +7552,7 @@
         <v>770</v>
       </c>
       <c r="D159" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7570,7 +7566,7 @@
         <v>771</v>
       </c>
       <c r="D160" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7584,7 +7580,7 @@
         <v>772</v>
       </c>
       <c r="D161" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7598,7 +7594,7 @@
         <v>773</v>
       </c>
       <c r="D162" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7612,7 +7608,7 @@
         <v>774</v>
       </c>
       <c r="D163" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7626,7 +7622,7 @@
         <v>775</v>
       </c>
       <c r="D164" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7640,7 +7636,7 @@
         <v>776</v>
       </c>
       <c r="D165" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -7654,7 +7650,7 @@
         <v>777</v>
       </c>
       <c r="D166" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7668,7 +7664,7 @@
         <v>778</v>
       </c>
       <c r="D167" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7682,7 +7678,7 @@
         <v>779</v>
       </c>
       <c r="D168" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7696,7 +7692,7 @@
         <v>780</v>
       </c>
       <c r="D169" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7710,7 +7706,7 @@
         <v>781</v>
       </c>
       <c r="D170" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7724,7 +7720,7 @@
         <v>782</v>
       </c>
       <c r="D171" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7738,7 +7734,7 @@
         <v>783</v>
       </c>
       <c r="D172" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7752,7 +7748,7 @@
         <v>784</v>
       </c>
       <c r="D173" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7766,7 +7762,7 @@
         <v>785</v>
       </c>
       <c r="D174" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7780,7 +7776,7 @@
         <v>786</v>
       </c>
       <c r="D175" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7794,7 +7790,7 @@
         <v>787</v>
       </c>
       <c r="D176" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7808,7 +7804,7 @@
         <v>788</v>
       </c>
       <c r="D177" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7822,7 +7818,7 @@
         <v>789</v>
       </c>
       <c r="D178" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7836,7 +7832,7 @@
         <v>790</v>
       </c>
       <c r="D179" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7850,7 +7846,7 @@
         <v>791</v>
       </c>
       <c r="D180" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7864,7 +7860,7 @@
         <v>792</v>
       </c>
       <c r="D181" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7878,7 +7874,7 @@
         <v>793</v>
       </c>
       <c r="D182" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7892,7 +7888,7 @@
         <v>794</v>
       </c>
       <c r="D183" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -7906,7 +7902,7 @@
         <v>795</v>
       </c>
       <c r="D184" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -7920,7 +7916,7 @@
         <v>796</v>
       </c>
       <c r="D185" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -7934,7 +7930,7 @@
         <v>797</v>
       </c>
       <c r="D186" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -7948,7 +7944,7 @@
         <v>798</v>
       </c>
       <c r="D187" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -7962,7 +7958,7 @@
         <v>799</v>
       </c>
       <c r="D188" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -7976,7 +7972,7 @@
         <v>800</v>
       </c>
       <c r="D189" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -7990,7 +7986,7 @@
         <v>801</v>
       </c>
       <c r="D190" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -8004,7 +8000,7 @@
         <v>802</v>
       </c>
       <c r="D191" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -8018,7 +8014,7 @@
         <v>803</v>
       </c>
       <c r="D192" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -8032,7 +8028,7 @@
         <v>804</v>
       </c>
       <c r="D193" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -8046,7 +8042,7 @@
         <v>805</v>
       </c>
       <c r="D194" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -8060,7 +8056,7 @@
         <v>806</v>
       </c>
       <c r="D195" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -8074,7 +8070,7 @@
         <v>807</v>
       </c>
       <c r="D196" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -8088,7 +8084,7 @@
         <v>808</v>
       </c>
       <c r="D197" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -8102,7 +8098,7 @@
         <v>809</v>
       </c>
       <c r="D198" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -8116,7 +8112,7 @@
         <v>810</v>
       </c>
       <c r="D199" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -8130,7 +8126,7 @@
         <v>811</v>
       </c>
       <c r="D200" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -8144,7 +8140,7 @@
         <v>812</v>
       </c>
       <c r="D201" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -8158,7 +8154,7 @@
         <v>813</v>
       </c>
       <c r="D202" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -8172,7 +8168,7 @@
         <v>814</v>
       </c>
       <c r="D203" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -8186,7 +8182,7 @@
         <v>815</v>
       </c>
       <c r="D204" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -8200,7 +8196,7 @@
         <v>816</v>
       </c>
       <c r="D205" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -8214,7 +8210,7 @@
         <v>817</v>
       </c>
       <c r="D206" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -8228,7 +8224,7 @@
         <v>818</v>
       </c>
       <c r="D207" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -8242,7 +8238,7 @@
         <v>819</v>
       </c>
       <c r="D208" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -8256,7 +8252,7 @@
         <v>820</v>
       </c>
       <c r="D209" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -8270,7 +8266,7 @@
         <v>821</v>
       </c>
       <c r="D210" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -8284,7 +8280,7 @@
         <v>822</v>
       </c>
       <c r="D211" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -8298,7 +8294,7 @@
         <v>823</v>
       </c>
       <c r="D212" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -8312,7 +8308,7 @@
         <v>824</v>
       </c>
       <c r="D213" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -8326,7 +8322,7 @@
         <v>825</v>
       </c>
       <c r="D214" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -8340,7 +8336,7 @@
         <v>826</v>
       </c>
       <c r="D215" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -8354,7 +8350,7 @@
         <v>827</v>
       </c>
       <c r="D216" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -8368,7 +8364,7 @@
         <v>828</v>
       </c>
       <c r="D217" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -8382,7 +8378,7 @@
         <v>829</v>
       </c>
       <c r="D218" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -8396,7 +8392,7 @@
         <v>830</v>
       </c>
       <c r="D219" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -8410,7 +8406,7 @@
         <v>831</v>
       </c>
       <c r="D220" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -8424,7 +8420,7 @@
         <v>832</v>
       </c>
       <c r="D221" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -8438,7 +8434,7 @@
         <v>833</v>
       </c>
       <c r="D222" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -8452,7 +8448,7 @@
         <v>834</v>
       </c>
       <c r="D223" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -8466,7 +8462,7 @@
         <v>835</v>
       </c>
       <c r="D224" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -8480,7 +8476,7 @@
         <v>836</v>
       </c>
       <c r="D225" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -8494,7 +8490,7 @@
         <v>833</v>
       </c>
       <c r="D226" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -8508,7 +8504,7 @@
         <v>837</v>
       </c>
       <c r="D227" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -8522,7 +8518,7 @@
         <v>838</v>
       </c>
       <c r="D228" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -8536,7 +8532,7 @@
         <v>839</v>
       </c>
       <c r="D229" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -8550,7 +8546,7 @@
         <v>840</v>
       </c>
       <c r="D230" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -8564,7 +8560,7 @@
         <v>841</v>
       </c>
       <c r="D231" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -8578,7 +8574,7 @@
         <v>842</v>
       </c>
       <c r="D232" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -8592,7 +8588,7 @@
         <v>843</v>
       </c>
       <c r="D233" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -8606,7 +8602,7 @@
         <v>844</v>
       </c>
       <c r="D234" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -8620,7 +8616,7 @@
         <v>845</v>
       </c>
       <c r="D235" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -8634,7 +8630,7 @@
         <v>846</v>
       </c>
       <c r="D236" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -8648,7 +8644,7 @@
         <v>847</v>
       </c>
       <c r="D237" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8662,7 +8658,7 @@
         <v>848</v>
       </c>
       <c r="D238" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -8676,7 +8672,7 @@
         <v>849</v>
       </c>
       <c r="D239" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -8690,7 +8686,7 @@
         <v>850</v>
       </c>
       <c r="D240" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -8704,7 +8700,7 @@
         <v>851</v>
       </c>
       <c r="D241" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -8718,7 +8714,7 @@
         <v>852</v>
       </c>
       <c r="D242" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -8732,7 +8728,7 @@
         <v>853</v>
       </c>
       <c r="D243" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -8746,7 +8742,7 @@
         <v>854</v>
       </c>
       <c r="D244" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8760,7 +8756,7 @@
         <v>855</v>
       </c>
       <c r="D245" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -8774,7 +8770,7 @@
         <v>856</v>
       </c>
       <c r="D246" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -8788,7 +8784,7 @@
         <v>857</v>
       </c>
       <c r="D247" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -8802,7 +8798,7 @@
         <v>858</v>
       </c>
       <c r="D248" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -8816,7 +8812,7 @@
         <v>859</v>
       </c>
       <c r="D249" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -8830,7 +8826,7 @@
         <v>860</v>
       </c>
       <c r="D250" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -8844,7 +8840,7 @@
         <v>861</v>
       </c>
       <c r="D251" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8858,7 +8854,7 @@
         <v>862</v>
       </c>
       <c r="D252" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -8872,7 +8868,7 @@
         <v>863</v>
       </c>
       <c r="D253" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -8886,7 +8882,7 @@
         <v>864</v>
       </c>
       <c r="D254" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -8900,7 +8896,7 @@
         <v>865</v>
       </c>
       <c r="D255" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -8914,7 +8910,7 @@
         <v>866</v>
       </c>
       <c r="D256" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -8928,7 +8924,7 @@
         <v>867</v>
       </c>
       <c r="D257" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -8942,7 +8938,7 @@
         <v>868</v>
       </c>
       <c r="D258" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -8956,7 +8952,7 @@
         <v>869</v>
       </c>
       <c r="D259" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -8970,7 +8966,7 @@
         <v>870</v>
       </c>
       <c r="D260" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -8984,7 +8980,7 @@
         <v>871</v>
       </c>
       <c r="D261" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -8998,7 +8994,7 @@
         <v>872</v>
       </c>
       <c r="D262" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -9012,7 +9008,7 @@
         <v>873</v>
       </c>
       <c r="D263" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -9026,7 +9022,7 @@
         <v>874</v>
       </c>
       <c r="D264" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -9040,7 +9036,7 @@
         <v>875</v>
       </c>
       <c r="D265" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -9054,7 +9050,7 @@
         <v>876</v>
       </c>
       <c r="D266" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -9068,7 +9064,7 @@
         <v>877</v>
       </c>
       <c r="D267" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -9082,7 +9078,7 @@
         <v>878</v>
       </c>
       <c r="D268" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -9096,7 +9092,7 @@
         <v>879</v>
       </c>
       <c r="D269" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -9110,7 +9106,7 @@
         <v>880</v>
       </c>
       <c r="D270" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -9124,7 +9120,7 @@
         <v>881</v>
       </c>
       <c r="D271" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -9138,7 +9134,7 @@
         <v>882</v>
       </c>
       <c r="D272" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -9152,7 +9148,7 @@
         <v>883</v>
       </c>
       <c r="D273" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -9166,7 +9162,7 @@
         <v>884</v>
       </c>
       <c r="D274" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -9180,7 +9176,7 @@
         <v>731</v>
       </c>
       <c r="D275" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -9194,7 +9190,7 @@
         <v>885</v>
       </c>
       <c r="D276" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -9208,7 +9204,7 @@
         <v>886</v>
       </c>
       <c r="D277" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -9222,7 +9218,7 @@
         <v>887</v>
       </c>
       <c r="D278" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -9236,7 +9232,7 @@
         <v>888</v>
       </c>
       <c r="D279" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -9250,7 +9246,7 @@
         <v>889</v>
       </c>
       <c r="D280" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -9264,7 +9260,7 @@
         <v>890</v>
       </c>
       <c r="D281" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -9278,7 +9274,7 @@
         <v>891</v>
       </c>
       <c r="D282" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -9292,7 +9288,7 @@
         <v>892</v>
       </c>
       <c r="D283" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -9306,7 +9302,7 @@
         <v>893</v>
       </c>
       <c r="D284" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -9320,7 +9316,7 @@
         <v>894</v>
       </c>
       <c r="D285" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -9334,7 +9330,7 @@
         <v>895</v>
       </c>
       <c r="D286" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -9348,7 +9344,7 @@
         <v>896</v>
       </c>
       <c r="D287" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -9362,7 +9358,7 @@
         <v>897</v>
       </c>
       <c r="D288" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -9376,7 +9372,7 @@
         <v>898</v>
       </c>
       <c r="D289" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -9390,7 +9386,7 @@
         <v>899</v>
       </c>
       <c r="D290" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -9404,7 +9400,7 @@
         <v>900</v>
       </c>
       <c r="D291" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -9418,7 +9414,7 @@
         <v>901</v>
       </c>
       <c r="D292" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -9432,7 +9428,7 @@
         <v>902</v>
       </c>
       <c r="D293" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -9446,7 +9442,7 @@
         <v>903</v>
       </c>
       <c r="D294" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -9460,7 +9456,7 @@
         <v>904</v>
       </c>
       <c r="D295" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -9474,7 +9470,7 @@
         <v>905</v>
       </c>
       <c r="D296" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -9488,7 +9484,7 @@
         <v>906</v>
       </c>
       <c r="D297" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -9502,7 +9498,7 @@
         <v>907</v>
       </c>
       <c r="D298" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -9516,7 +9512,7 @@
         <v>908</v>
       </c>
       <c r="D299" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -9530,7 +9526,7 @@
         <v>909</v>
       </c>
       <c r="D300" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9544,7 +9540,7 @@
         <v>910</v>
       </c>
       <c r="D301" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -9558,7 +9554,7 @@
         <v>911</v>
       </c>
       <c r="D302" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -9572,7 +9568,7 @@
         <v>912</v>
       </c>
       <c r="D303" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -9586,7 +9582,7 @@
         <v>913</v>
       </c>
       <c r="D304" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -9600,7 +9596,7 @@
         <v>914</v>
       </c>
       <c r="D305" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -9614,7 +9610,7 @@
         <v>915</v>
       </c>
       <c r="D306" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -9628,7 +9624,7 @@
         <v>820</v>
       </c>
       <c r="D307" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -9642,7 +9638,7 @@
         <v>916</v>
       </c>
       <c r="D308" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -9656,7 +9652,7 @@
         <v>917</v>
       </c>
       <c r="D309" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -9670,7 +9666,7 @@
         <v>918</v>
       </c>
       <c r="D310" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -9698,7 +9694,7 @@
         <v>919</v>
       </c>
       <c r="D312" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -9712,7 +9708,7 @@
         <v>920</v>
       </c>
       <c r="D313" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -9726,7 +9722,7 @@
         <v>921</v>
       </c>
       <c r="D314" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -9740,7 +9736,7 @@
         <v>922</v>
       </c>
       <c r="D315" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -9754,7 +9750,7 @@
         <v>923</v>
       </c>
       <c r="D316" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -9782,7 +9778,7 @@
         <v>924</v>
       </c>
       <c r="D318" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -9796,7 +9792,7 @@
         <v>925</v>
       </c>
       <c r="D319" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -9810,7 +9806,7 @@
         <v>926</v>
       </c>
       <c r="D320" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -9824,7 +9820,7 @@
         <v>927</v>
       </c>
       <c r="D321" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -9838,7 +9834,7 @@
         <v>928</v>
       </c>
       <c r="D322" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -9866,7 +9862,7 @@
         <v>929</v>
       </c>
       <c r="D324" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -9880,7 +9876,7 @@
         <v>930</v>
       </c>
       <c r="D325" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -9894,7 +9890,7 @@
         <v>931</v>
       </c>
       <c r="D326" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -9908,7 +9904,7 @@
         <v>932</v>
       </c>
       <c r="D327" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
   </sheetData>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
@@ -2540,7 +2540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cities are captured and brought into Ursus in humiliation. The lines fall back once and again, as “Silverlance” becomes a mocking joke leveled at the knights by the warmongers.
+    <t xml:space="preserve">Cities are captured and brought into Ursus in humiliation. The lines fall back once and again, as 'Silverlance' becomes a mocking joke leveled at the knights by the warmongers.
 </t>
   </si>
   <si>
@@ -2644,7 +2644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  Foul Arts and tortured Sarkaz Infected. Is this what a “knight” should be?
+    <t xml:space="preserve">[name="Margaret"]  Foul Arts and tortured Sarkaz Infected. Is this what a 'knight' should be?
 </t>
   </si>
   <si>
@@ -2824,7 +2824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Don’t be so suspicious of your superiors, little pegasus. The board of directors only asked us to “watch the Radiant Knight” after all, not fight her...
+    <t xml:space="preserve">[name="??? "]  Don’t be so suspicious of your superiors, little pegasus. The board of directors only asked us to 'watch the Radiant Knight' after all, not fight her...
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
@@ -2532,7 +2532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Every day, as night falls, blazing torches form an unbroken line. The campaign knights’ armor gleams beneath the moonlight, the sharp edges of their silver lances point at the restless enemy prowling in the darkness.
+    <t xml:space="preserve">Every day, as night falls, blazing torches form an unbroken line. The campaign knights' armor gleams beneath the moonlight, the sharp edges of their silver lances point at the restless enemy prowling in the darkness.
 </t>
   </si>
   <si>
@@ -2588,11 +2588,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">You’ve grown up. You’ve really done well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  No... That’s not Maria’s Arts...
+    <t xml:space="preserve">You've grown up. You've really done well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  No... That's not Maria's Arts...
 </t>
   </si>
   <si>
@@ -2604,7 +2604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  It was very, very fast! They couldn’t even get a glimpse of what it was! 
+    <t xml:space="preserve">[name="Corporate Employee"]  It was very, very fast! They couldn't even get a glimpse of what it was! 
 </t>
   </si>
   <si>
@@ -2612,7 +2612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  I-It doesn’t seem like a weapon. It’s a person, a Kuranta, but only the strongest knights are able to handle speed like that——
+    <t xml:space="preserve">[name="Corporate Employee"]  I-It doesn't seem like a weapon. It's a person, a Kuranta, but only the strongest knights are able to handle speed like that——
 </t>
   </si>
   <si>
@@ -2628,7 +2628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corrupted Knight"]  Guh... Where’s the enemy? Too bright, can’t see...! 
+    <t xml:space="preserve">[name="Corrupted Knight"]  Guh... Where's the enemy? Too bright, can't see...! 
 </t>
   </si>
   <si>
@@ -2656,11 +2656,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Wait... Is it really you? I’m not hallucinating, am I...? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Margaret"]  It’s me.
+    <t xml:space="preserve">[name="Maria"]  Wait... Is it really you? I'm not hallucinating, am I...? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Margaret"]  It's me.
 </t>
   </si>
   <si>
@@ -2672,7 +2672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  You’ve done well, Maria.
+    <t xml:space="preserve">[name="Margaret"]  You've done well, Maria.
 </t>
   </si>
   <si>
@@ -2684,11 +2684,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  No, don’t even think about it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corrupted Knight"]  Why... Why can’t I hit her...?
+    <t xml:space="preserve">[name="Margaret"]  No, don't even think about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corrupted Knight"]  Why... Why can't I hit her...?
 </t>
   </si>
   <si>
@@ -2696,11 +2696,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  It’s her——She came in that light. It’s——that’s——that’s the Radiant Knight! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  What’s going on?! The exiled Radiant Knight returns at the climax of this fight!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  It's her——She came in that light. It's——that's——that's the Radiant Knight! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  What's going on?! The exiled Radiant Knight returns at the climax of this fight!  
 </t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Sh-She broke the rules! But that’s not important! To save her sister, the Radiant Knight did whatever it took to return to Kazimierz!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Sh-She broke the rules! But that's not important! To save her sister, the Radiant Knight did whatever it took to return to Kazimierz!   
 </t>
   </si>
   <si>
@@ -2720,7 +2720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  That’s... Margaret? That knight with the shield is the Radiant Knight...? 
+    <t xml:space="preserve">[name="Zofia"]  That's... Margaret? That knight with the shield is the Radiant Knight...? 
 </t>
   </si>
   <si>
@@ -2728,11 +2728,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  I don’t even recognize her anymore...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  ...It’s her. What has she been through all these years...?
+    <t xml:space="preserve">[name="Bald Marcin"]  I don't even recognize her anymore...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  ...It's her. What has she been through all these years...?
 </t>
   </si>
   <si>
@@ -2740,7 +2740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  The Radiant Knight, that spirited Margaret... She’s returned?
+    <t xml:space="preserve">[name="Bald Marcin"]  The Radiant Knight, that spirited Margaret... She's returned?
 </t>
   </si>
   <si>
@@ -2756,11 +2756,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  I’d really rather you didn’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  I’ll say it again: there’s nothing you can do. I live by a rule, I don’t fight with anyone but my target.
+    <t xml:space="preserve">[name="Platinum"]  I'd really rather you didn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  I'll say it again: there's nothing you can do. I live by a rule, I don't fight with anyone but my target.
 </t>
   </si>
   <si>
@@ -2768,7 +2768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ——It’s getting bright?
+    <t xml:space="preserve">[name="Platinum"]  ——It's getting bright?
 </t>
   </si>
   <si>
@@ -2788,11 +2788,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  (This is a lot more intense than Maria’s Arts. Could it be...?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  (But... The two Lazurites... It can’t be...)
+    <t xml:space="preserve">[name="Platinum"]  (This is a lot more intense than Maria's Arts. Could it be...?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  (But... The two Lazurites... It can't be...)
 </t>
   </si>
   <si>
@@ -2800,7 +2800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  It’s me.
+    <t xml:space="preserve">[name="Platinum"]  It's me.
 </t>
   </si>
   <si>
@@ -2824,19 +2824,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Don’t be so suspicious of your superiors, little pegasus. The board of directors only asked us to 'watch the Radiant Knight' after all, not fight her...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  I was thinking that even if we did fight, I would have that dumb-faced idiot with me so it wouldn’t be any problem at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Turns out there was, uh, a tiny issue shall we say. First off, the Radiant Knight seems to have gotten just that little bit stronger... There are also some troublesome horns together with her, it’s really annoying.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  Well... If it’s even giving you trouble, you’re wasting your time telling me about it.
+    <t xml:space="preserve">[name="??? "]  Don't be so suspicious of your superiors, little pegasus. The board of directors only asked us to 'watch the Radiant Knight' after all, not fight her...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  I was thinking that even if we did fight, I would have that dumb-faced idiot with me so it wouldn't be any problem at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Turns out there was, uh, a tiny issue shall we say. First off, the Radiant Knight seems to have gotten just that little bit stronger... There are also some troublesome horns together with her, it's really annoying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  Well... If it's even giving you trouble, you're wasting your time telling me about it.
 </t>
   </si>
   <si>
@@ -2856,7 +2856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Could it be Młynar? No, can’t be... He should still be in his office... Then... 
+    <t xml:space="preserve">[name="Platinum"]  Could it be Młynar? No, can't be... He should still be in his office... Then... 
 </t>
   </si>
   <si>
@@ -2876,15 +2876,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  What’s happening? I’ve never felt like this before... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...Don’t move. Breathe slowly and look around.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  (Feels like I’ve been made... And those two are looking jumpy...)
+    <t xml:space="preserve">[name="Old Craftsman"]  What's happening? I've never felt like this before... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  ...Don't move. Breathe slowly and look around.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  (Feels like I've been made... And those two are looking jumpy...)
 </t>
   </si>
   <si>
@@ -2908,11 +2908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ......Ugh, of course they’d be difficult to handle... They’re not even knights...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  Let them pass. Their names aren’t on the list anyway.
+    <t xml:space="preserve">[name="Platinum"]  ......Ugh, of course they'd be difficult to handle... They're not even knights...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  Let them pass. Their names aren't on the list anyway.
 </t>
   </si>
   <si>
@@ -2924,11 +2924,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nightingale"]  Yes... It’s bright over there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shining"]  It’s Nearl.
+    <t xml:space="preserve">[name="Nightingale"]  Yes... It's bright over there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shining"]  It's Nearl.
 </t>
   </si>
   <si>
@@ -2940,19 +2940,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...Really, what’s going on today...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  That Sarkaz just now... Does she know Margaret? What’s happening? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  It’s really Margaret! V! Margaret’s back!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...Don’t yell.
+    <t xml:space="preserve">[name="Platinum"]  ...Really, what's going on today...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  That Sarkaz just now... Does she know Margaret? What's happening? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  It's really Margaret! V! Margaret's back!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  ...Don't yell.
 </t>
   </si>
   <si>
@@ -2960,11 +2960,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Don’t stare at me like that... You get to live.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  They cancelled the mission. I don’t have a reason to stop you anymore.
+    <t xml:space="preserve">[name="Platinum"]  Don't stare at me like that... You get to live.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  They cancelled the mission. I don't have a reason to stop you anymore.
 </t>
   </si>
   <si>
@@ -2976,7 +2976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  V! Don’t bother with them, let’s get to the arena! 
+    <t xml:space="preserve">[name="Old Craftsman"]  V! Don't bother with them, let's get to the arena! 
 </t>
   </si>
   <si>
@@ -2988,11 +2988,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Where’s the arena security?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  S-Security...? That was the Radiant Knight charging at full power, we’d probably have to raise the city’s barrier to stop her... 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Where's the arena security?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  S-Security...? That was the Radiant Knight charging at full power, we'd probably have to raise the city's barrier to stop her... 
 </t>
   </si>
   <si>
@@ -3000,11 +3000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Haha... Radiant Knight... With things as they are now, why did you even return? To look at the knights’ epitaph? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Mr. Czarny! We’ve received word from the General Chamber of Commerce... You... 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Haha... Radiant Knight... With things as they are now, why did you even return? To look at the knights' epitaph? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  Mr. Czarny! We've received word from the General Chamber of Commerce... You... 
 </t>
   </si>
   <si>
@@ -3016,7 +3016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  No matter what happens next, even if I don’t return, you must not leave this room.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  No matter what happens next, even if I don't return, you must not leave this room.
 </t>
   </si>
   <si>
@@ -3024,7 +3024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Yes, I’ve already prepared everything beforehand... Yes, Czarny, you have already done everything you could, so just wait for the curtain call.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Yes, I've already prepared everything beforehand... Yes, Czarny, you have already done everything you could, so just wait for the curtain call.
 </t>
   </si>
   <si>
@@ -3124,7 +3124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  ——I’ll do my best!
+    <t xml:space="preserve">[name="Maria"]  ——I'll do my best!
 </t>
   </si>
   <si>
@@ -3160,7 +3160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  She’s out there, against all odds! The return of the legend! The National Council could drag her away right after this match. This could be our only chance to witness the glory of the Radiant Knight!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  She's out there, against all odds! The return of the legend! The National Council could drag her away right after this match. This could be our only chance to witness the glory of the Radiant Knight!  
 </t>
   </si>
   <si>
@@ -3176,7 +3176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nightingale"]  Her light... It’s hot.
+    <t xml:space="preserve">[name="Nightingale"]  Her light... It's hot.
 </t>
   </si>
   <si>
@@ -3184,7 +3184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shining"]  I’ve never seen her fail, after looking like that.
+    <t xml:space="preserve">[name="Shining"]  I've never seen her fail, after looking like that.
 </t>
   </si>
   <si>
@@ -3192,7 +3192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shining"]  Yes, that’s her sister.
+    <t xml:space="preserve">[name="Shining"]  Yes, that's her sister.
 </t>
   </si>
   <si>
@@ -3208,7 +3208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  He’s forming arrows using his Arts... I’ll block them!
+    <t xml:space="preserve">[name="Maria"]  He's forming arrows using his Arts... I'll block them!
 </t>
   </si>
   <si>
@@ -3216,7 +3216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Withered Knight"]  Can’t penetrate——this damned light!
+    <t xml:space="preserve">[name="Withered Knight"]  Can't penetrate——this damned light!
 </t>
   </si>
   <si>
@@ -3228,11 +3228,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Margaret doesn’t have an advantage. Those two Sarkaz are strong... and work well together.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  But I don’t feel like Margaret will lose... I don’t even think she is disadvantaged...
+    <t xml:space="preserve">[name="Bald Marcin"]  Margaret doesn't have an advantage. Those two Sarkaz are strong... and work well together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  But I don't feel like Margaret will lose... I don't even think she is disadvantaged...
 </t>
   </si>
   <si>
@@ -3248,7 +3248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The radiance from every swing of Margaret’s warhammer completely dispels her opponent’s Arts! Even the cracks the Radiant Knight steps on are filled with light! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The radiance from every swing of Margaret's warhammer completely dispels her opponent's Arts! Even the cracks the Radiant Knight steps on are filled with light! 
 </t>
   </si>
   <si>
@@ -3260,7 +3260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Haa... My wounds aren’t hurting as much anymore... Is this Margaret’s Arts too?
+    <t xml:space="preserve">[name="Maria"]  Haa... My wounds aren't hurting as much anymore... Is this Margaret's Arts too?
 </t>
   </si>
   <si>
@@ -3272,7 +3272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corrupted Knight"]  No weapon, then, with my hands, I’ll tear you apart——!
+    <t xml:space="preserve">[name="Corrupted Knight"]  No weapon, then, with my hands, I'll tear you apart——!
 </t>
   </si>
   <si>
@@ -3284,7 +3284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Margaret has a strange expression on her face. It’s...pity?
+    <t xml:space="preserve">Margaret has a strange expression on her face. It's...pity?
 </t>
   </si>
   <si>
@@ -3296,11 +3296,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Ah, I’m here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Margaret"]  I’ll leave the support to you.
+    <t xml:space="preserve">[name="Maria"]  Ah, I'm here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Margaret"]  I'll leave the support to you.
 </t>
   </si>
   <si>
@@ -3332,7 +3332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No one has realized that the match has ended. There aren’t any knights boasting about their victory, nor are there the defiant howls of the losers.
+    <t xml:space="preserve">No one has realized that the match has ended. There aren't any knights boasting about their victory, nor are there the defiant howls of the losers.
 </t>
   </si>
   <si>
@@ -3376,7 +3376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  We’ve won.
+    <t xml:space="preserve">[name="Margaret"]  We've won.
 </t>
   </si>
   <si>
@@ -3384,11 +3384,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Because I sure can’t! The Radiant Knight who suddenly entered the fight! The Knights Association that let it happen! Oh my god, I, this——   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  I’ve never seen a situation like this in all my years of commentating! Though I don’t know how the National Council will react, it doesn’t change the fact that they won!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Because I sure can't! The Radiant Knight who suddenly entered the fight! The Knights Association that let it happen! Oh my god, I, this——   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  I've never seen a situation like this in all my years of commentating! Though I don't know how the National Council will react, it doesn't change the fact that they won!  
 </t>
   </si>
   <si>
@@ -3400,7 +3400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  (...Oh, you’re here!) 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  (...Oh, you're here!) 
 </t>
   </si>
   <si>
@@ -3420,7 +3420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  (That’s right, Mr. Mob. I really do appreciate your ability to fan the fervor of the audience.) 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  (That's right, Mr. Mob. I really do appreciate your ability to fan the fervor of the audience.) 
 </t>
   </si>
   <si>
@@ -3444,11 +3444,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Is it really Margaret... Why’d Margaret come back now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  N-no matter what, she’s an exile. Why didn’t she tell us——
+    <t xml:space="preserve">[name="Old Knight"]  Is it really Margaret... Why'd Margaret come back now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  N-no matter what, she's an exile. Why didn't she tell us——
 </t>
   </si>
   <si>
@@ -3460,7 +3460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tourist"]  Radiant Knight! That’s the Radiant Knight from last season!  
+    <t xml:space="preserve">[name="Tourist"]  Radiant Knight! That's the Radiant Knight from last season!  
 </t>
   </si>
   <si>
@@ -3472,11 +3472,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  (What should I do next?! You can’t contact the spokesman?! Idiot! Go look for him at the VIP seats——!)    
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Hold on! That, that’s the Whislash Knight! The Whislash Knight suddenly rushed towards the Radiant Knight from the crowd——  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  (What should I do next?! You can't contact the spokesman?! Idiot! Go look for him at the VIP seats——!)    
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Hold on! That, that's the Whislash Knight! The Whislash Knight suddenly rushed towards the Radiant Knight from the crowd——  
 </t>
   </si>
   <si>
@@ -3492,11 +3492,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  ——D-did she just slap the Radiant Knight? Huh? Eh? This looks like it’ll be in the papers tomorrow——   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Margaret"]  I’m sorry. But I’ve returned.
+    <t xml:space="preserve">[name="Greatmouth Mob"]  ——D-did she just slap the Radiant Knight? Huh? Eh? This looks like it'll be in the papers tomorrow——   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Margaret"]  I'm sorry. But I've returned.
 </t>
   </si>
   <si>
@@ -3508,7 +3508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I’ll spare you my own.
+    <t xml:space="preserve">[name="Zofia"]  I'll spare you my own.
 </t>
   </si>
   <si>
@@ -3516,7 +3516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  ...Now isn’t the time to talk about that. The National Council will definitely not allow an exile to return to Kazimierz.
+    <t xml:space="preserve">[name="Zofia"]  ...Now isn't the time to talk about that. The National Council will definitely not allow an exile to return to Kazimierz.
 </t>
   </si>
   <si>
@@ -3524,11 +3524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  R-right now? But the competition results haven’t... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  It doesn’t matter! She’s here and that’s way more important than the competition! 
+    <t xml:space="preserve">[name="Maria"]  R-right now? But the competition results haven't... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  It doesn't matter! She's here and that's way more important than the competition! 
 </t>
   </si>
   <si>
@@ -3540,7 +3540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  ...You don’t need to worry so much. Alright, hold my hand tight.
+    <t xml:space="preserve">[name="Margaret"]  ...You don't need to worry so much. Alright, hold my hand tight.
 </t>
   </si>
   <si>
@@ -3548,7 +3548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  Don’t worry, they’re my friends. Shining, can you do me a favor?
+    <t xml:space="preserve">[name="Margaret"]  Don't worry, they're my friends. Shining, can you do me a favor?
 </t>
   </si>
   <si>
@@ -3564,7 +3564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corrupted Knight"]  Sarkaz, you... you! It can’t be, you? Healed me?  
+    <t xml:space="preserve">[name="Corrupted Knight"]  Sarkaz, you... you! It can't be, you? Healed me?  
 </t>
   </si>
   <si>
@@ -3572,7 +3572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corrupted Knight"]  Go away——Don’t touch me! Guh... 
+    <t xml:space="preserve">[name="Corrupted Knight"]  Go away——Don't touch me! Guh... 
 </t>
   </si>
   <si>
@@ -3616,15 +3616,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  Ah... It’s Mr. Kowal and Mr. Vogelweide. Have they found something? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  What do you think?! Of course they’re preparing a way for you to escape! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  The three of us will help keep the crowds away from you, but the National Council will definitely be paying you a visit. You’ll have to deal with them yourself——
+    <t xml:space="preserve">[name="Margaret"]  Ah... It's Mr. Kowal and Mr. Vogelweide. Have they found something? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  What do you think?! Of course they're preparing a way for you to escape! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  The three of us will help keep the crowds away from you, but the National Council will definitely be paying you a visit. You'll have to deal with them yourself——
 </t>
   </si>
   <si>
@@ -3636,11 +3636,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s really great... that you came back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  The usual place, don’t be late.
+    <t xml:space="preserve">[name="Zofia"]  It's really great... that you came back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  The usual place, don't be late.
 </t>
   </si>
   <si>
@@ -3648,15 +3648,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nightingale"]  That’s... Nearl’s family?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shining"]  She’s come back home. We can all see her joy, no?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shining"]  So, let’s give her some space. She’s the Radiant Knight after all. No one in Kazimierz can touch her. 
+    <t xml:space="preserve">[name="Nightingale"]  That's... Nearl's family?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shining"]  She's come back home. We can all see her joy, no?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shining"]  So, let's give her some space. She's the Radiant Knight after all. No one in Kazimierz can touch her. 
 </t>
   </si>
   <si>
@@ -3664,7 +3664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shining"]  We’ll regroup with Amiya later.
+    <t xml:space="preserve">[name="Shining"]  We'll regroup with Amiya later.
 </t>
   </si>
   <si>
@@ -3680,7 +3680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  ...Let’s go home.
+    <t xml:space="preserve">[name="Margaret"]  ...Let's go home.
 </t>
   </si>
   <si>
@@ -3688,11 +3688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...You’re here. What about your little follower? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  ...He’s the next one.
+    <t xml:space="preserve">[name="Platinum"]  ...You're here. What about your little follower? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  ...He's the next one.
 </t>
   </si>
   <si>
@@ -3704,7 +3704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Well, aren’t you straightforward...? You already know the answer, why ask me?
+    <t xml:space="preserve">[name="Platinum"]  Well, aren't you straightforward...? You already know the answer, why ask me?
 </t>
   </si>
   <si>
@@ -3716,7 +3716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...Maybe. Don’t blame me, if I am.
+    <t xml:space="preserve">[name="Platinum"]  ...Maybe. Don't blame me, if I am.
 </t>
   </si>
   <si>
@@ -3724,7 +3724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  It won’t happen through the National Council. You’ll have to leave by tonight. Is there anything you need to take care of?
+    <t xml:space="preserve">[name="Platinum"]  It won't happen through the National Council. You'll have to leave by tonight. Is there anything you need to take care of?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_end.xlsx
@@ -3776,7 +3776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">무자비한 침략자들은, 하늘의 빛깔을 바꾸는 능력을 가진 라이타니아인이 달빛을 차단하게 했고, 우르수스인들이 어둠 속에서 나타나 성벽을 넘어가게 했다.
+    <t xml:space="preserve">무자비한 침략자들은, 하늘의 빛깔을 바꾸는 능력을 가진 라이타니엔인이 달빛을 차단하게 했고, 우르수스인들이 어둠 속에서 나타나 성벽을 넘어가게 했다.
 </t>
   </si>
   <si>
